--- a/_Documents/Pacing Guide Fall25 CSCI102.xlsx
+++ b/_Documents/Pacing Guide Fall25 CSCI102.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcccks-my.sharepoint.com/personal/yuriy_drubinskiy_gcccks_edu/Documents/2. Courses/CSCI 102 - Intro to programming/__F25/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcccks-my.sharepoint.com/personal/yuriy_drubinskiy_gcccks_edu/Documents/2. Courses/CSCI 102 - Intro to programming/__F25/Pycharm_Material/CSCI102_Fall25/_Public/_Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="122" documentId="8_{C1AC2589-FB9D-435B-8E63-D004B2F88A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1A7714C-0DFB-4E65-A2E2-CC6EB963DAE2}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="8_{C1AC2589-FB9D-435B-8E63-D004B2F88A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E408212D-4A4F-4A21-8467-FFD4484A848C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{6A701157-7CF0-4440-A0F4-3CE6DD5CE046}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6A701157-7CF0-4440-A0F4-3CE6DD5CE046}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -536,7 +536,7 @@
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -546,7 +546,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -558,7 +558,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -579,43 +579,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -627,8 +591,44 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -967,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56582428-F3DF-4787-98D5-42DCB778871E}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:D28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -982,28 +982,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
     </row>
     <row r="4" spans="1:4" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
@@ -1020,10 +1020,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="5" t="s">
         <v>52</v>
       </c>
@@ -1032,16 +1032,16 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="5" t="s">
         <v>53</v>
       </c>
@@ -1054,30 +1054,30 @@
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="5" t="s">
         <v>58</v>
       </c>
@@ -1090,32 +1090,32 @@
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="9" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="19" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="19" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1126,26 +1126,26 @@
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="5" t="s">
         <v>63</v>
       </c>
       <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="21"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="5" t="s">
         <v>65</v>
       </c>
@@ -1158,32 +1158,32 @@
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="5" t="s">
+      <c r="B21" s="22"/>
+      <c r="C21" s="20" t="s">
         <v>66</v>
       </c>
       <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="20" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="19" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1194,28 +1194,28 @@
       <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:4" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="19" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="17"/>
-      <c r="B26" s="19"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="32"/>
       <c r="C26" s="5" t="s">
         <v>73</v>
       </c>
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="17"/>
-      <c r="B27" s="19"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="5" t="s">
         <v>74</v>
       </c>
@@ -1230,10 +1230,10 @@
       <c r="D28" s="15"/>
     </row>
     <row r="29" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="18"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="5" t="s">
         <v>76</v>
       </c>
@@ -1242,16 +1242,16 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="22"/>
       <c r="C30" s="5" t="s">
         <v>78</v>
       </c>
       <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="22"/>
       <c r="C31" s="5" t="s">
         <v>79</v>
       </c>
@@ -1264,26 +1264,26 @@
       <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="18"/>
+      <c r="B33" s="22"/>
       <c r="C33" s="5" t="s">
         <v>80</v>
       </c>
       <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="22"/>
       <c r="C34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="17"/>
-      <c r="B35" s="18"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="22"/>
       <c r="C35" s="9" t="s">
         <v>45</v>
       </c>
@@ -1296,26 +1296,26 @@
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="18"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D37" s="16"/>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="22"/>
       <c r="C38" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="16"/>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="22"/>
       <c r="C39" s="5" t="s">
         <v>9</v>
       </c>
@@ -1328,26 +1328,26 @@
       <c r="D40" s="8"/>
     </row>
     <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="18"/>
+      <c r="B41" s="22"/>
       <c r="C41" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D41" s="5"/>
     </row>
     <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="17"/>
-      <c r="B42" s="18"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="22"/>
       <c r="C42" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D42" s="5"/>
     </row>
     <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="17"/>
-      <c r="B43" s="18"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="22"/>
       <c r="C43" s="5" t="s">
         <v>11</v>
       </c>
@@ -1360,26 +1360,26 @@
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="18"/>
+      <c r="B45" s="22"/>
       <c r="C45" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D45" s="5"/>
     </row>
     <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="17"/>
-      <c r="B46" s="18"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="22"/>
       <c r="C46" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="5"/>
     </row>
     <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="17"/>
-      <c r="B47" s="18"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="22"/>
       <c r="C47" s="5" t="s">
         <v>13</v>
       </c>
@@ -1392,26 +1392,26 @@
       <c r="D48" s="8"/>
     </row>
     <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="18"/>
+      <c r="B49" s="22"/>
       <c r="C49" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="5"/>
     </row>
     <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="17"/>
-      <c r="B50" s="18"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="22"/>
       <c r="C50" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="5"/>
     </row>
     <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="17"/>
-      <c r="B51" s="18"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="22"/>
       <c r="C51" s="5" t="s">
         <v>16</v>
       </c>
@@ -1424,26 +1424,26 @@
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B53" s="18"/>
+      <c r="B53" s="22"/>
       <c r="C53" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="5"/>
     </row>
     <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="17"/>
-      <c r="B54" s="18"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="22"/>
       <c r="C54" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="5"/>
     </row>
     <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="17"/>
-      <c r="B55" s="18"/>
+      <c r="A55" s="21"/>
+      <c r="B55" s="22"/>
       <c r="C55" s="5" t="s">
         <v>18</v>
       </c>
@@ -1456,26 +1456,26 @@
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B57" s="18"/>
+      <c r="B57" s="22"/>
       <c r="C57" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D57" s="5"/>
     </row>
     <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="17"/>
-      <c r="B58" s="18"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="22"/>
       <c r="C58" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D58" s="5"/>
     </row>
     <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="17"/>
-      <c r="B59" s="18"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="22"/>
       <c r="C59" s="5" t="s">
         <v>21</v>
       </c>
@@ -1488,24 +1488,24 @@
       <c r="D60" s="8"/>
     </row>
     <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="17" t="s">
+      <c r="A61" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B61" s="18"/>
+      <c r="B61" s="22"/>
       <c r="C61" s="23" t="s">
         <v>47</v>
       </c>
       <c r="D61" s="24"/>
     </row>
     <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="17"/>
-      <c r="B62" s="18"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="22"/>
       <c r="C62" s="25"/>
       <c r="D62" s="26"/>
     </row>
     <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="17"/>
-      <c r="B63" s="18"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="22"/>
       <c r="C63" s="27"/>
       <c r="D63" s="28"/>
     </row>
@@ -1516,26 +1516,26 @@
       <c r="D64" s="8"/>
     </row>
     <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B65" s="18"/>
+      <c r="B65" s="22"/>
       <c r="C65" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D65" s="5"/>
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="17"/>
-      <c r="B66" s="18"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="22"/>
       <c r="C66" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D66" s="5"/>
     </row>
     <row r="67" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="17"/>
-      <c r="B67" s="18"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="22"/>
       <c r="C67" s="5" t="s">
         <v>24</v>
       </c>
@@ -1548,29 +1548,51 @@
       <c r="D68" s="15"/>
     </row>
     <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="17" t="s">
+      <c r="A69" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="22" t="s">
         <v>25</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
     </row>
     <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="17"/>
-      <c r="B70" s="18"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="22"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
     </row>
     <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="17"/>
-      <c r="B71" s="18"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="22"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="C61:D63"/>
@@ -1587,28 +1609,6 @@
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="B69:B71"/>
   </mergeCells>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
 </worksheet>
